--- a/biology/Médecine/Catéchine/Catéchine.xlsx
+++ b/biology/Médecine/Catéchine/Catéchine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cat%C3%A9chine</t>
+          <t>Catéchine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La catéchine est un composé organique de la famille des flavanols, une sous-classe des flavonoïdes. Elle est aussi connue sous le nom de catéchol, avec le risque de confusion avec le pyrocatéchol parfois dénommé lui aussi catéchol. L'usage dans la communauté scientifique a fini par imposer le terme de catéchine, dérivé du terme anglais catechin. Ce tannin catéchique est un composé allélopathique initialement découvert dans les fruits de l'acacia à cachou (Acacia catechu, auquel cette molécule doit son nom). La catéchine et ses nombreux isomères sont de puissants antioxydants qui aident à prévenir les maladies inflammatoires et coronariennes. Ils sont également phytotoxiques et antibactériens[2].
+La catéchine est un composé organique de la famille des flavanols, une sous-classe des flavonoïdes. Elle est aussi connue sous le nom de catéchol, avec le risque de confusion avec le pyrocatéchol parfois dénommé lui aussi catéchol. L'usage dans la communauté scientifique a fini par imposer le terme de catéchine, dérivé du terme anglais catechin. Ce tannin catéchique est un composé allélopathique initialement découvert dans les fruits de l'acacia à cachou (Acacia catechu, auquel cette molécule doit son nom). La catéchine et ses nombreux isomères sont de puissants antioxydants qui aident à prévenir les maladies inflammatoires et coronariennes. Ils sont également phytotoxiques et antibactériens.
 Le terme de catéchine est aussi parfois utilisé pour désigner la classe des flavanols (flavan-3-ols, flavan-3,4-ols et leurs esters galliques). Pour éviter la confusion entre la classe et le composé, ce dernier est désigné dans ce contexte par (+/-)-catéchine.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cat%C3%A9chine</t>
+          <t>Catéchine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Les stéréoisomères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La catéchine existe sous forme de plusieurs stéréoisomères provenant de deux carbones asymétriques. Les formes énantiomères (en image spéculaire) dans les positions 2 et 3 de l'hétérocycle central, nommée configuration R/S, donnent les quatre structures suivantes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La catéchine existe sous forme de plusieurs stéréoisomères provenant de deux carbones asymétriques. Les formes énantiomères (en image spéculaire) dans les positions 2 et 3 de l'hétérocycle central, nommée configuration R/S, donnent les quatre structures suivantes :
 Dans la nature, les isomères les plus fréquents sont la (+)-catéchine et la (–)-épicatéchine. Les deux autres énantiomères sont beaucoup plus rares et leur présence semble liée à des réactions enzymatiques ou à des traitements thermiques.
 C'est ainsi que la fève de cacao fraîche contient principalement de la (–)-épicatéchine et un peu de (+)-catéchine. Mais une fois torréfiée, la fève (et le chocolat) révèle en plus de la (–)-catéchine. La haute température nécessaire à la torréfaction déplace l'équilibre d'épimérisation vers la (–)-catéchine :
 (–)-épicatéchine → (–)-catéchine
-Certaines plantes synthétisent en égales quantités les énantioméres (+) et (–). Ainsi, la racine de centaurée maculée[4] (Centaurea maculata) exsude une (±)-catéchine racémique  avec une composante (–)-catéchine développant une activité herbicide puissante, susceptible de repousser les plantes voisines compétitives.
+Certaines plantes synthétisent en égales quantités les énantioméres (+) et (–). Ainsi, la racine de centaurée maculée (Centaurea maculata) exsude une (±)-catéchine racémique  avec une composante (–)-catéchine développant une activité herbicide puissante, susceptible de repousser les plantes voisines compétitives.
 Le chauffage de la catéchine au-delà de son point de décomposition libère du pyrocatéchol, dénommé aussi catéchol, au risque de confusion.
 Les tanins condensés sont des oligomères ou des polymères dérivés de la (+)-catéchine ou de ses isomères.
 </t>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cat%C3%A9chine</t>
+          <t>Catéchine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Quelques catéchines communes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Catéchines communes du thé et du vin avec une configuration –cis dans les positions 2, 3 :
 Quelques catéchines communes avec une configuration -trans dans les positions 2, 3 :
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cat%C3%A9chine</t>
+          <t>Catéchine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,9 +598,11 @@
           <t>Inhibition de l'histidine décarboxylase</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La (+)-catéchine est un inhibiteur de l'histamine N-méthyl transférase, et inhibe donc la conversion de la L-histidine en histamine. De ce fait, elle peut avoir un effet bénéfique sur les désordres immuns dus à l'histamine dans un certain nombre de pathologies dont, entre autres, l'ulcère gastrique[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La (+)-catéchine est un inhibiteur de l'histamine N-méthyl transférase, et inhibe donc la conversion de la L-histidine en histamine. De ce fait, elle peut avoir un effet bénéfique sur les désordres immuns dus à l'histamine dans un certain nombre de pathologies dont, entre autres, l'ulcère gastrique.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cat%C3%A9chine</t>
+          <t>Catéchine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Action générale sur la santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'action générale des catéchines sur la santé est mal connue, elles font partie des anti-oxydants, mais on considère parfois qu'elles pourraient limiter l'absorption du fer[6],[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'action générale des catéchines sur la santé est mal connue, elles font partie des anti-oxydants, mais on considère parfois qu'elles pourraient limiter l'absorption du fer,.
 </t>
         </is>
       </c>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cat%C3%A9chine</t>
+          <t>Catéchine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,9 +664,11 @@
           <t>Catéchines et métaux lourds</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des catéchines (celles du thé notamment) semblent diminuer le stress oxydatif induit par le plomb dans les cellules[8]. Elles pourraient donc participer au traitement des intoxications saturnines.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des catéchines (celles du thé notamment) semblent diminuer le stress oxydatif induit par le plomb dans les cellules. Elles pourraient donc participer au traitement des intoxications saturnines.
 </t>
         </is>
       </c>
